--- a/xls/final.xlsx
+++ b/xls/final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\Spring2023\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\FRE6233\Spring2023\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBE4FE8-1365-4145-8398-329DEEE01F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63494606-213A-4089-8E36-016631B5DCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11835" xr2:uid="{4CEAC677-ADE4-4510-AF88-8F76F8AE3055}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{4CEAC677-ADE4-4510-AF88-8F76F8AE3055}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="s">Sheet1!$J$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,6 +40,58 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kal</author>
+  </authors>
+  <commentList>
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{94F9240D-CAE1-4738-9B8E-0CCC0066DA2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>use discrte invers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{749C6862-36A2-4395-BA14-497C94C8908E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>f exp(s x - kappa(s))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{802D4BBB-7C9D-4880-AE15-7D167467DDC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Use monte carlo to compare closed form solution</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -104,20 +155,20 @@
     <t>X</t>
   </si>
   <si>
-    <t>fe^{sX}/mgf(s)</t>
+    <t>mean</t>
   </si>
   <si>
-    <t>payoff</t>
+    <t>put payoff</t>
   </si>
   <si>
-    <t>mean</t>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -131,6 +182,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -441,127 +499,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>8.2532762003931729E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2532762003931729E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4422556087821578E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4422556087821578E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4422556087821578E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4422556087821578E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4422556087821578E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4422556087821578E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14717112679315095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14717112679315095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14717112679315095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14717112679315095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14717112679315095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14717112679315095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33872063122737511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.33872063122737511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33872063122737511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33872063122737511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.33872063122737511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.33872063122737511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.58358718752967964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.58358718752967964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.58358718752967964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.58358718752967964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.58358718752967964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.58358718752967964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.58358718752967964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.80096510423053457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.80096510423053457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.80096510423053457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.80096510423053457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.80096510423053457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.80096510423053457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.93329091643575146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.93329091643575146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93329091643575146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.93329091643575146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.93329091643575146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.93329091643575146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.98615284832951722</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.98615284832951722</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,11 +2039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938476C7-3676-4B9E-BB8B-45CB19F20BAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938476C7-3676-4B9E-BB8B-45CB19F20BAF}">
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2006,7 +2064,7 @@
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">_xll.DISTRIBUTION.DISCRETE(_xlfn.ANCHORARRAY(B5),_xlfn.ANCHORARRAY(C5),TRUE)</f>
-        <v>2431110386912</v>
+        <v>2813257541824</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -2103,10 +2161,6 @@
       <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J6" cm="1">
-        <f t="array" aca="1" ref="J6" ca="1">_xll.DISTRIBUTION.DISCRETE_INV(discrete,RAND(),s)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -2125,7 +2179,7 @@
         <v>2.8716559816001779E-2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
@@ -2147,6 +2201,10 @@
       <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J8">
+        <f>MAX(k - J7, 0)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -2165,7 +2223,7 @@
         <v>4.4565462758542999E-2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
@@ -2603,5 +2661,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>